--- a/Batch/data/Setup_biogas_JMOR_master_batch.xlsx
+++ b/Batch/data/Setup_biogas_JMOR_master_batch.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="25306"/>
   <workbookPr date1904="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="25600" yWindow="0" windowWidth="38400" windowHeight="21140" tabRatio="995"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15540" tabRatio="995" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="setup" sheetId="1" r:id="rId1"/>
@@ -18,111 +18,138 @@
     <sheet name="excel solver_total" sheetId="9" r:id="rId9"/>
     <sheet name="excel solver_N" sheetId="10" r:id="rId10"/>
     <sheet name="excel_solver_S" sheetId="11" r:id="rId11"/>
+    <sheet name="Gompertz" sheetId="12" r:id="rId12"/>
   </sheets>
   <definedNames>
-    <definedName name="solver_adj" localSheetId="9" hidden="1">'excel solver_N'!$E$30</definedName>
+    <definedName name="solver_adj" localSheetId="9" hidden="1">'excel solver_N'!$D$30</definedName>
     <definedName name="solver_adj" localSheetId="8" hidden="1">'excel solver_total'!$E$30</definedName>
     <definedName name="solver_adj" localSheetId="10" hidden="1">excel_solver_S!$E$30</definedName>
+    <definedName name="solver_adj" localSheetId="11" hidden="1">Gompertz!$M$35:$N$35</definedName>
     <definedName name="solver_adj" localSheetId="2" hidden="1">'nylon bag info'!$D$30</definedName>
     <definedName name="solver_cvg" localSheetId="9" hidden="1">0.0001</definedName>
     <definedName name="solver_cvg" localSheetId="8" hidden="1">0.0001</definedName>
     <definedName name="solver_cvg" localSheetId="10" hidden="1">0.0001</definedName>
+    <definedName name="solver_cvg" localSheetId="11" hidden="1">0.0001</definedName>
     <definedName name="solver_cvg" localSheetId="2" hidden="1">0.0001</definedName>
     <definedName name="solver_drv" localSheetId="9" hidden="1">1</definedName>
     <definedName name="solver_drv" localSheetId="8" hidden="1">1</definedName>
     <definedName name="solver_drv" localSheetId="10" hidden="1">1</definedName>
+    <definedName name="solver_drv" localSheetId="11" hidden="1">1</definedName>
     <definedName name="solver_drv" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_eng" localSheetId="9" hidden="1">1</definedName>
     <definedName name="solver_eng" localSheetId="8" hidden="1">1</definedName>
     <definedName name="solver_eng" localSheetId="10" hidden="1">1</definedName>
+    <definedName name="solver_eng" localSheetId="11" hidden="1">1</definedName>
     <definedName name="solver_eng" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_itr" localSheetId="9" hidden="1">2147483647</definedName>
     <definedName name="solver_itr" localSheetId="8" hidden="1">2147483647</definedName>
     <definedName name="solver_itr" localSheetId="10" hidden="1">2147483647</definedName>
+    <definedName name="solver_itr" localSheetId="11" hidden="1">2147483647</definedName>
     <definedName name="solver_itr" localSheetId="2" hidden="1">2147483647</definedName>
     <definedName name="solver_lin" localSheetId="9" hidden="1">2</definedName>
     <definedName name="solver_lin" localSheetId="8" hidden="1">2</definedName>
     <definedName name="solver_lin" localSheetId="10" hidden="1">2</definedName>
+    <definedName name="solver_lin" localSheetId="11" hidden="1">2</definedName>
     <definedName name="solver_lin" localSheetId="2" hidden="1">2</definedName>
     <definedName name="solver_mip" localSheetId="9" hidden="1">2147483647</definedName>
     <definedName name="solver_mip" localSheetId="8" hidden="1">2147483647</definedName>
     <definedName name="solver_mip" localSheetId="10" hidden="1">2147483647</definedName>
+    <definedName name="solver_mip" localSheetId="11" hidden="1">2147483647</definedName>
     <definedName name="solver_mip" localSheetId="2" hidden="1">2147483647</definedName>
     <definedName name="solver_mni" localSheetId="9" hidden="1">30</definedName>
     <definedName name="solver_mni" localSheetId="8" hidden="1">30</definedName>
     <definedName name="solver_mni" localSheetId="10" hidden="1">30</definedName>
+    <definedName name="solver_mni" localSheetId="11" hidden="1">30</definedName>
     <definedName name="solver_mni" localSheetId="2" hidden="1">30</definedName>
     <definedName name="solver_mrt" localSheetId="9" hidden="1">0.075</definedName>
     <definedName name="solver_mrt" localSheetId="8" hidden="1">0.075</definedName>
     <definedName name="solver_mrt" localSheetId="10" hidden="1">0.075</definedName>
+    <definedName name="solver_mrt" localSheetId="11" hidden="1">0.075</definedName>
     <definedName name="solver_mrt" localSheetId="2" hidden="1">0.075</definedName>
     <definedName name="solver_msl" localSheetId="9" hidden="1">2</definedName>
     <definedName name="solver_msl" localSheetId="8" hidden="1">2</definedName>
     <definedName name="solver_msl" localSheetId="10" hidden="1">2</definedName>
+    <definedName name="solver_msl" localSheetId="11" hidden="1">2</definedName>
     <definedName name="solver_msl" localSheetId="2" hidden="1">2</definedName>
     <definedName name="solver_neg" localSheetId="9" hidden="1">1</definedName>
     <definedName name="solver_neg" localSheetId="8" hidden="1">1</definedName>
     <definedName name="solver_neg" localSheetId="10" hidden="1">1</definedName>
+    <definedName name="solver_neg" localSheetId="11" hidden="1">1</definedName>
     <definedName name="solver_neg" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_nod" localSheetId="9" hidden="1">2147483647</definedName>
     <definedName name="solver_nod" localSheetId="8" hidden="1">2147483647</definedName>
     <definedName name="solver_nod" localSheetId="10" hidden="1">2147483647</definedName>
+    <definedName name="solver_nod" localSheetId="11" hidden="1">2147483647</definedName>
     <definedName name="solver_nod" localSheetId="2" hidden="1">2147483647</definedName>
     <definedName name="solver_num" localSheetId="9" hidden="1">0</definedName>
     <definedName name="solver_num" localSheetId="8" hidden="1">0</definedName>
     <definedName name="solver_num" localSheetId="10" hidden="1">0</definedName>
+    <definedName name="solver_num" localSheetId="11" hidden="1">0</definedName>
     <definedName name="solver_num" localSheetId="2" hidden="1">0</definedName>
-    <definedName name="solver_opt" localSheetId="9" hidden="1">'excel solver_N'!$J$37</definedName>
+    <definedName name="solver_opt" localSheetId="9" hidden="1">'excel solver_N'!$H$37</definedName>
     <definedName name="solver_opt" localSheetId="8" hidden="1">'excel solver_total'!$J$37</definedName>
     <definedName name="solver_opt" localSheetId="10" hidden="1">excel_solver_S!$J$37</definedName>
+    <definedName name="solver_opt" localSheetId="11" hidden="1">Gompertz!$O$32</definedName>
     <definedName name="solver_opt" localSheetId="2" hidden="1">'nylon bag info'!$H$37</definedName>
     <definedName name="solver_pre" localSheetId="9" hidden="1">0.000001</definedName>
     <definedName name="solver_pre" localSheetId="8" hidden="1">0.000001</definedName>
     <definedName name="solver_pre" localSheetId="10" hidden="1">0.000001</definedName>
+    <definedName name="solver_pre" localSheetId="11" hidden="1">0.000001</definedName>
     <definedName name="solver_pre" localSheetId="2" hidden="1">0.000001</definedName>
     <definedName name="solver_rbv" localSheetId="9" hidden="1">1</definedName>
     <definedName name="solver_rbv" localSheetId="8" hidden="1">1</definedName>
     <definedName name="solver_rbv" localSheetId="10" hidden="1">1</definedName>
+    <definedName name="solver_rbv" localSheetId="11" hidden="1">1</definedName>
     <definedName name="solver_rbv" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_rlx" localSheetId="9" hidden="1">2</definedName>
     <definedName name="solver_rlx" localSheetId="8" hidden="1">2</definedName>
     <definedName name="solver_rlx" localSheetId="10" hidden="1">2</definedName>
+    <definedName name="solver_rlx" localSheetId="11" hidden="1">2</definedName>
     <definedName name="solver_rlx" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_rsd" localSheetId="9" hidden="1">0</definedName>
     <definedName name="solver_rsd" localSheetId="8" hidden="1">0</definedName>
     <definedName name="solver_rsd" localSheetId="10" hidden="1">0</definedName>
+    <definedName name="solver_rsd" localSheetId="11" hidden="1">0</definedName>
     <definedName name="solver_rsd" localSheetId="2" hidden="1">0</definedName>
     <definedName name="solver_scl" localSheetId="9" hidden="1">1</definedName>
     <definedName name="solver_scl" localSheetId="8" hidden="1">1</definedName>
     <definedName name="solver_scl" localSheetId="10" hidden="1">1</definedName>
+    <definedName name="solver_scl" localSheetId="11" hidden="1">1</definedName>
     <definedName name="solver_scl" localSheetId="2" hidden="1">2</definedName>
     <definedName name="solver_sho" localSheetId="9" hidden="1">2</definedName>
     <definedName name="solver_sho" localSheetId="8" hidden="1">2</definedName>
     <definedName name="solver_sho" localSheetId="10" hidden="1">2</definedName>
+    <definedName name="solver_sho" localSheetId="11" hidden="1">2</definedName>
     <definedName name="solver_sho" localSheetId="2" hidden="1">2</definedName>
     <definedName name="solver_ssz" localSheetId="9" hidden="1">100</definedName>
     <definedName name="solver_ssz" localSheetId="8" hidden="1">100</definedName>
     <definedName name="solver_ssz" localSheetId="10" hidden="1">100</definedName>
+    <definedName name="solver_ssz" localSheetId="11" hidden="1">100</definedName>
     <definedName name="solver_ssz" localSheetId="2" hidden="1">100</definedName>
     <definedName name="solver_tim" localSheetId="9" hidden="1">2147483647</definedName>
     <definedName name="solver_tim" localSheetId="8" hidden="1">2147483647</definedName>
     <definedName name="solver_tim" localSheetId="10" hidden="1">2147483647</definedName>
+    <definedName name="solver_tim" localSheetId="11" hidden="1">2147483647</definedName>
     <definedName name="solver_tim" localSheetId="2" hidden="1">2147483647</definedName>
     <definedName name="solver_tol" localSheetId="9" hidden="1">0.01</definedName>
     <definedName name="solver_tol" localSheetId="8" hidden="1">0.01</definedName>
     <definedName name="solver_tol" localSheetId="10" hidden="1">0.01</definedName>
+    <definedName name="solver_tol" localSheetId="11" hidden="1">0.01</definedName>
     <definedName name="solver_tol" localSheetId="2" hidden="1">0.01</definedName>
     <definedName name="solver_typ" localSheetId="9" hidden="1">2</definedName>
     <definedName name="solver_typ" localSheetId="8" hidden="1">2</definedName>
     <definedName name="solver_typ" localSheetId="10" hidden="1">2</definedName>
+    <definedName name="solver_typ" localSheetId="11" hidden="1">2</definedName>
     <definedName name="solver_typ" localSheetId="2" hidden="1">2</definedName>
     <definedName name="solver_val" localSheetId="9" hidden="1">0</definedName>
     <definedName name="solver_val" localSheetId="8" hidden="1">0</definedName>
     <definedName name="solver_val" localSheetId="10" hidden="1">0</definedName>
+    <definedName name="solver_val" localSheetId="11" hidden="1">0</definedName>
     <definedName name="solver_val" localSheetId="2" hidden="1">0</definedName>
     <definedName name="solver_ver" localSheetId="9" hidden="1">2</definedName>
     <definedName name="solver_ver" localSheetId="8" hidden="1">2</definedName>
     <definedName name="solver_ver" localSheetId="10" hidden="1">2</definedName>
+    <definedName name="solver_ver" localSheetId="11" hidden="1">2</definedName>
     <definedName name="solver_ver" localSheetId="2" hidden="1">2</definedName>
   </definedNames>
   <calcPr calcId="140001" concurrentCalc="0"/>
@@ -260,7 +287,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1192" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1265" uniqueCount="237">
   <si>
     <t>Setup data from biogas experiment</t>
   </si>
@@ -966,6 +993,60 @@
   <si>
     <t>start</t>
   </si>
+  <si>
+    <t>FG1</t>
+  </si>
+  <si>
+    <t>FG2</t>
+  </si>
+  <si>
+    <t>FG3</t>
+  </si>
+  <si>
+    <t>FG4</t>
+  </si>
+  <si>
+    <t>FG5</t>
+  </si>
+  <si>
+    <t>FG6</t>
+  </si>
+  <si>
+    <t>Gompertz</t>
+  </si>
+  <si>
+    <t>t</t>
+  </si>
+  <si>
+    <t>obs</t>
+  </si>
+  <si>
+    <t>gomp</t>
+  </si>
+  <si>
+    <t>lampda</t>
+  </si>
+  <si>
+    <t>m_m</t>
+  </si>
+  <si>
+    <t>r_max</t>
+  </si>
+  <si>
+    <t>FOM</t>
+  </si>
+  <si>
+    <t>Start N</t>
+  </si>
+  <si>
+    <t>Slut N</t>
+  </si>
+  <si>
+    <t>Start S</t>
+  </si>
+  <si>
+    <t>Slut S</t>
+  </si>
 </sst>
 </file>
 
@@ -1252,7 +1333,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="119">
+  <cellStyleXfs count="137">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1372,8 +1453,26 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1557,8 +1656,10 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="119">
+  <cellStyles count="137">
     <cellStyle name="Besøgt link" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Besøgt link" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Besøgt link" xfId="6" builtinId="9" hidden="1"/>
@@ -1618,6 +1719,15 @@
     <cellStyle name="Besøgt link" xfId="114" builtinId="9" hidden="1"/>
     <cellStyle name="Besøgt link" xfId="116" builtinId="9" hidden="1"/>
     <cellStyle name="Besøgt link" xfId="118" builtinId="9" hidden="1"/>
+    <cellStyle name="Besøgt link" xfId="120" builtinId="9" hidden="1"/>
+    <cellStyle name="Besøgt link" xfId="122" builtinId="9" hidden="1"/>
+    <cellStyle name="Besøgt link" xfId="124" builtinId="9" hidden="1"/>
+    <cellStyle name="Besøgt link" xfId="126" builtinId="9" hidden="1"/>
+    <cellStyle name="Besøgt link" xfId="128" builtinId="9" hidden="1"/>
+    <cellStyle name="Besøgt link" xfId="130" builtinId="9" hidden="1"/>
+    <cellStyle name="Besøgt link" xfId="132" builtinId="9" hidden="1"/>
+    <cellStyle name="Besøgt link" xfId="134" builtinId="9" hidden="1"/>
+    <cellStyle name="Besøgt link" xfId="136" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1677,6 +1787,15 @@
     <cellStyle name="Hyperlink" xfId="113" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="115" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="117" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="119" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="121" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="123" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="125" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="127" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="129" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="131" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="133" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="135" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1903,11 +2022,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2109706184"/>
-        <c:axId val="2087139400"/>
+        <c:axId val="2135656792"/>
+        <c:axId val="2135659784"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2109706184"/>
+        <c:axId val="2135656792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1917,12 +2036,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2087139400"/>
+        <c:crossAx val="2135659784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2087139400"/>
+        <c:axId val="2135659784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1933,13 +2052,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2109706184"/>
+        <c:crossAx val="2135656792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2019,7 +2139,7 @@
                   <c:v>77.9034</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>13.81475555555556</c:v>
+                  <c:v>21.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>15.40719444444444</c:v>
@@ -2077,19 +2197,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>77.90277376556448</c:v>
+                  <c:v>77.90301048147235</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>14.13756087867678</c:v>
+                  <c:v>22.05985455666384</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9.93658092892047</c:v>
+                  <c:v>11.0680836479234</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9.828013698014711</c:v>
+                  <c:v>9.85043554392522</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9.827840000070397</c:v>
+                  <c:v>9.827842388135083</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2138,19 +2258,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>77.90302655878611</c:v>
+                  <c:v>77.9031278306755</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>18.49263909794597</c:v>
+                  <c:v>27.31305074365757</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.718038076257472</c:v>
+                  <c:v>6.752355159777315</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.0948319455118187</c:v>
+                  <c:v>0.585267141148799</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.42569243827772E-5</c:v>
+                  <c:v>0.00218622272630081</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2165,11 +2285,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2110122344"/>
-        <c:axId val="2110122824"/>
+        <c:axId val="2125978408"/>
+        <c:axId val="-2147218792"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2110122344"/>
+        <c:axId val="2125978408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2179,12 +2299,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2110122824"/>
+        <c:crossAx val="-2147218792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2110122824"/>
+        <c:axId val="-2147218792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2195,13 +2315,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2110122344"/>
+        <c:crossAx val="2125978408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2427,11 +2548,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2096292776"/>
-        <c:axId val="2107524552"/>
+        <c:axId val="2129331272"/>
+        <c:axId val="2136005512"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2096292776"/>
+        <c:axId val="2129331272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2441,12 +2562,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2107524552"/>
+        <c:crossAx val="2136005512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2107524552"/>
+        <c:axId val="2136005512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2457,7 +2578,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2096292776"/>
+        <c:crossAx val="2129331272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2853,7 +2974,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M24" sqref="M24"/>
     </sheetView>
   </sheetViews>
@@ -4686,8 +4807,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
@@ -6016,21 +6137,46 @@
     </row>
     <row r="24" spans="1:20">
       <c r="A24" s="59"/>
-      <c r="B24" s="40"/>
-      <c r="C24" s="40"/>
-      <c r="D24" s="40"/>
-      <c r="E24" s="40"/>
-      <c r="F24" s="40"/>
+      <c r="B24" s="40" t="s">
+        <v>233</v>
+      </c>
+      <c r="C24" s="40" t="s">
+        <v>234</v>
+      </c>
+      <c r="D24" t="s">
+        <v>145</v>
+      </c>
+      <c r="E24" s="40" t="s">
+        <v>235</v>
+      </c>
+      <c r="F24" s="76" t="s">
+        <v>236</v>
+      </c>
       <c r="G24" s="40"/>
       <c r="H24" s="40"/>
     </row>
     <row r="25" spans="1:20">
       <c r="A25" s="59"/>
-      <c r="B25" s="40"/>
-      <c r="C25" s="40"/>
-      <c r="D25" s="40"/>
-      <c r="E25" s="40"/>
-      <c r="F25" s="40"/>
+      <c r="B25" s="40">
+        <f>AVERAGE(G20:G22)</f>
+        <v>5.5776544999999986</v>
+      </c>
+      <c r="C25" s="40">
+        <f>AVERAGE(I20:I22)</f>
+        <v>1.6911666666666665</v>
+      </c>
+      <c r="D25" s="40">
+        <f>(C25-B25)/B25</f>
+        <v>-0.69679608755496292</v>
+      </c>
+      <c r="E25" s="40">
+        <f>AVERAGE(G20:G22)*AVERAGE(N5:N7)/100</f>
+        <v>6.1168277683333327E-3</v>
+      </c>
+      <c r="F25" s="40">
+        <f>AVERAGE(I20:I22)*AVERAGE(N20:N22)/100</f>
+        <v>3.466891666666666E-3</v>
+      </c>
       <c r="G25" s="40" t="s">
         <v>216</v>
       </c>
@@ -6051,7 +6197,10 @@
       <c r="C26" s="40"/>
       <c r="D26" s="40"/>
       <c r="E26" s="40"/>
-      <c r="F26" s="40"/>
+      <c r="F26" s="40">
+        <f>(F25-E25)/E25</f>
+        <v>-0.43322064998876064</v>
+      </c>
       <c r="G26" s="40" t="s">
         <v>210</v>
       </c>
@@ -6124,10 +6273,10 @@
         <v>77.903399999999991</v>
       </c>
       <c r="D30">
-        <v>0.91991504135213631</v>
+        <v>0.57218720202442797</v>
       </c>
       <c r="E30">
-        <v>0.47936561043832759</v>
+        <v>0.34936832014795183</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -6160,19 +6309,19 @@
       </c>
       <c r="G32">
         <f>$B$30+($C$30-$B$30)*EXP(-$D$30*E32)</f>
-        <v>77.902773765564476</v>
+        <v>77.90301048147235</v>
       </c>
       <c r="H32">
         <f>(G32-F32)^2</f>
-        <v>3.9216956822481103E-7</v>
+        <v>1.5172468337528176E-7</v>
       </c>
       <c r="I32">
         <f>$C$30*EXP(-$E$30*E32)</f>
-        <v>77.903026558786109</v>
+        <v>77.903127830675501</v>
       </c>
       <c r="J32">
         <f>(I32-F32)^2</f>
-        <v>1.3945834022503796E-7</v>
+        <v>7.4076141192999213E-8</v>
       </c>
     </row>
     <row r="33" spans="5:10">
@@ -6180,24 +6329,23 @@
         <v>3</v>
       </c>
       <c r="F33">
-        <f>AVERAGE(I8:I10)*(AVERAGE(L8:L10)/100)*1000</f>
-        <v>13.814755555555555</v>
+        <v>21</v>
       </c>
       <c r="G33">
         <f t="shared" ref="G33:G36" si="11">$B$30+($C$30-$B$30)*EXP(-$D$30*E33)</f>
-        <v>14.137560878676783</v>
+        <v>22.059854556663836</v>
       </c>
       <c r="H33">
         <f t="shared" ref="H33:H36" si="12">(F33-G33)^2</f>
-        <v>0.10420327663540056</v>
+        <v>1.1232916812810974</v>
       </c>
       <c r="I33">
         <f t="shared" ref="I33:I36" si="13">$C$30*EXP(-$E$30*E33)</f>
-        <v>18.492639097945972</v>
+        <v>27.313050743657577</v>
       </c>
       <c r="J33">
         <f t="shared" ref="J33:J36" si="14">(I33-F33)^2</f>
-        <v>21.882594436167114</v>
+        <v>39.854609691995485</v>
       </c>
     </row>
     <row r="34" spans="5:10">
@@ -6210,19 +6358,19 @@
       </c>
       <c r="G34">
         <f t="shared" si="11"/>
-        <v>9.9365809289204705</v>
+        <v>11.068083647923402</v>
       </c>
       <c r="H34">
         <f t="shared" si="12"/>
-        <v>29.927612236233571</v>
+        <v>18.827882504485476</v>
       </c>
       <c r="I34">
         <f t="shared" si="13"/>
-        <v>2.7180380762574718</v>
+        <v>6.7523551597773146</v>
       </c>
       <c r="J34">
         <f t="shared" si="14"/>
-        <v>161.01468933630002</v>
+        <v>74.906243043417433</v>
       </c>
     </row>
     <row r="35" spans="5:10">
@@ -6235,19 +6383,19 @@
       </c>
       <c r="G35">
         <f t="shared" si="11"/>
-        <v>9.8280136980147113</v>
+        <v>9.850435543925224</v>
       </c>
       <c r="H35">
         <f t="shared" si="12"/>
-        <v>15.086022825812822</v>
+        <v>14.912349393770254</v>
       </c>
       <c r="I35">
         <f t="shared" si="13"/>
-        <v>9.4831945511818699E-2</v>
+        <v>0.58526714114879885</v>
       </c>
       <c r="J35">
         <f t="shared" si="14"/>
-        <v>185.42962614081401</v>
+        <v>172.31339085551716</v>
       </c>
     </row>
     <row r="36" spans="5:10">
@@ -6260,19 +6408,19 @@
       </c>
       <c r="G36">
         <f t="shared" si="11"/>
-        <v>9.8278400000703972</v>
+        <v>9.8278423881350836</v>
       </c>
       <c r="H36">
         <f t="shared" si="12"/>
-        <v>4.9559907460848417E-21</v>
+        <v>5.7031891853571555E-12</v>
       </c>
       <c r="I36">
         <f t="shared" si="13"/>
-        <v>4.4256924382777183E-5</v>
+        <v>2.1862227263008058E-3</v>
       </c>
       <c r="J36">
         <f t="shared" si="14"/>
-        <v>96.585569167615191</v>
+        <v>96.543472150852864</v>
       </c>
     </row>
     <row r="37" spans="5:10">
@@ -6281,11 +6429,11 @@
       </c>
       <c r="H37">
         <f>SUM(H32:H36)</f>
-        <v>45.117838730851361</v>
+        <v>34.863523731267215</v>
       </c>
       <c r="J37">
         <f>SUM(J32:J36)</f>
-        <v>464.91247922035467</v>
+        <v>383.61771581585901</v>
       </c>
     </row>
   </sheetData>
@@ -7913,6 +8061,1069 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O35"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O32" sqref="O32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15">
+      <c r="A1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
+      <c r="A2" t="s">
+        <v>142</v>
+      </c>
+      <c r="G2" t="s">
+        <v>144</v>
+      </c>
+      <c r="L2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="B3" t="s">
+        <v>226</v>
+      </c>
+      <c r="C3" t="s">
+        <v>227</v>
+      </c>
+      <c r="D3" t="s">
+        <v>228</v>
+      </c>
+      <c r="E3" t="s">
+        <v>189</v>
+      </c>
+      <c r="G3" t="s">
+        <v>226</v>
+      </c>
+      <c r="H3" t="s">
+        <v>227</v>
+      </c>
+      <c r="I3" t="s">
+        <v>228</v>
+      </c>
+      <c r="J3" t="s">
+        <v>189</v>
+      </c>
+      <c r="L3" t="s">
+        <v>226</v>
+      </c>
+      <c r="M3" t="s">
+        <v>227</v>
+      </c>
+      <c r="N3" t="s">
+        <v>228</v>
+      </c>
+      <c r="O3" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <f>$B$16*(EXP(-EXP((($C$16*2.718)/$B$16)*($A$16-B4)+1)))</f>
+        <v>5.7773067576950634</v>
+      </c>
+      <c r="E4">
+        <f>(D4-C4)^2</f>
+        <v>33.377273372509045</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <f>$H$16*(EXP(-EXP((($I$16*2.718)/$H$16)*($G$16-G4)+1)))</f>
+        <v>6.8085360322605775</v>
+      </c>
+      <c r="J4">
+        <f>(I4-H4)^2</f>
+        <v>46.356162902590604</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <f>$M$16*(EXP(-EXP((($N$16*2.718)/$M$16)*($L$16-L4)+1)))</f>
+        <v>8.7137048048763042</v>
+      </c>
+      <c r="O4">
+        <f>(N4-M4)^2</f>
+        <v>75.928651426524397</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>93</v>
+      </c>
+      <c r="D5">
+        <f t="shared" ref="D5:D12" si="0">$B$16*(EXP(-EXP((($C$16*2.718)/$B$16)*($A$16-B5)+1)))</f>
+        <v>91.929881428949898</v>
+      </c>
+      <c r="E5">
+        <f t="shared" ref="E5:E12" si="1">(D5-C5)^2</f>
+        <v>1.1451537561063128</v>
+      </c>
+      <c r="G5">
+        <v>2</v>
+      </c>
+      <c r="H5">
+        <v>108</v>
+      </c>
+      <c r="I5">
+        <f t="shared" ref="I5:I12" si="2">$H$16*(EXP(-EXP((($I$16*2.718)/$H$16)*($G$16-G5)+1)))</f>
+        <v>107.56585145867415</v>
+      </c>
+      <c r="J5">
+        <f t="shared" ref="J5:J12" si="3">(I5-H5)^2</f>
+        <v>0.18848495593536668</v>
+      </c>
+      <c r="L5">
+        <v>2</v>
+      </c>
+      <c r="M5">
+        <v>61</v>
+      </c>
+      <c r="N5">
+        <f t="shared" ref="N5:N12" si="4">$M$16*(EXP(-EXP((($N$16*2.718)/$M$16)*($L$16-L5)+1)))</f>
+        <v>60.77585726696546</v>
+      </c>
+      <c r="O5">
+        <f t="shared" ref="O5:O12" si="5">(N5-M5)^2</f>
+        <v>5.0239964772193176E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6">
+        <v>149</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>146.08091895177844</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="1"/>
+        <v>8.5210341660862632</v>
+      </c>
+      <c r="G6">
+        <v>3</v>
+      </c>
+      <c r="H6">
+        <v>172</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="2"/>
+        <v>167.20759376873085</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="3"/>
+        <v>22.967157485507421</v>
+      </c>
+      <c r="L6">
+        <v>3</v>
+      </c>
+      <c r="M6">
+        <v>103</v>
+      </c>
+      <c r="N6">
+        <f t="shared" si="4"/>
+        <v>98.69291909396911</v>
+      </c>
+      <c r="O6">
+        <f t="shared" si="5"/>
+        <v>18.550945931095875</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="B7">
+        <v>5</v>
+      </c>
+      <c r="C7">
+        <v>199</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>206.99371958277362</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="1"/>
+        <v>63.899552768018488</v>
+      </c>
+      <c r="G7">
+        <v>5</v>
+      </c>
+      <c r="H7">
+        <v>222</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="2"/>
+        <v>230.26515822552636</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="3"/>
+        <v>68.312840492986098</v>
+      </c>
+      <c r="L7">
+        <v>5</v>
+      </c>
+      <c r="M7">
+        <v>164</v>
+      </c>
+      <c r="N7">
+        <f t="shared" si="4"/>
+        <v>164.12487848544913</v>
+      </c>
+      <c r="O7">
+        <f t="shared" si="5"/>
+        <v>1.5594636128068697E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8">
+        <v>230</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>225.93864245503786</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="1"/>
+        <v>16.494625108020863</v>
+      </c>
+      <c r="G8">
+        <v>7</v>
+      </c>
+      <c r="H8">
+        <v>246</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="2"/>
+        <v>248.46899222506175</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="3"/>
+        <v>6.0959226074153916</v>
+      </c>
+      <c r="L8">
+        <v>7</v>
+      </c>
+      <c r="M8">
+        <v>201</v>
+      </c>
+      <c r="N8">
+        <f t="shared" si="4"/>
+        <v>202.10894491765805</v>
+      </c>
+      <c r="O8">
+        <f t="shared" si="5"/>
+        <v>1.2297588303996196</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="B9">
+        <v>9</v>
+      </c>
+      <c r="C9">
+        <v>231</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>230.96554791619269</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="1"/>
+        <v>1.186946078665875E-3</v>
+      </c>
+      <c r="G9">
+        <v>9</v>
+      </c>
+      <c r="H9">
+        <v>250</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="2"/>
+        <v>253.0050512281089</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="3"/>
+        <v>9.0303328835587902</v>
+      </c>
+      <c r="L9">
+        <v>9</v>
+      </c>
+      <c r="M9">
+        <v>213</v>
+      </c>
+      <c r="N9">
+        <f t="shared" si="4"/>
+        <v>220.08549124331395</v>
+      </c>
+      <c r="O9">
+        <f t="shared" si="5"/>
+        <v>50.204186159078709</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="B10">
+        <v>14</v>
+      </c>
+      <c r="C10">
+        <v>233</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>232.62313117989081</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="1"/>
+        <v>0.14203010757049661</v>
+      </c>
+      <c r="G10">
+        <v>14</v>
+      </c>
+      <c r="H10">
+        <v>256</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="2"/>
+        <v>254.39735168926481</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="3"/>
+        <v>2.5684816079023607</v>
+      </c>
+      <c r="L10">
+        <v>14</v>
+      </c>
+      <c r="M10">
+        <v>230</v>
+      </c>
+      <c r="N10">
+        <f t="shared" si="4"/>
+        <v>231.9985922862702</v>
+      </c>
+      <c r="O10">
+        <f t="shared" si="5"/>
+        <v>3.9943711267387272</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
+      <c r="B11">
+        <v>20</v>
+      </c>
+      <c r="C11">
+        <v>228</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>232.67664381808493</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="1"/>
+        <v>21.870997401231957</v>
+      </c>
+      <c r="G11">
+        <v>20</v>
+      </c>
+      <c r="H11">
+        <v>250</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="2"/>
+        <v>254.43640258785999</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="3"/>
+        <v>19.681667921570796</v>
+      </c>
+      <c r="L11">
+        <v>20</v>
+      </c>
+      <c r="M11">
+        <v>232</v>
+      </c>
+      <c r="N11">
+        <f t="shared" si="4"/>
+        <v>233.37013935490413</v>
+      </c>
+      <c r="O11">
+        <f t="shared" si="5"/>
+        <v>1.8772818518570935</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="B12">
+        <v>30</v>
+      </c>
+      <c r="C12">
+        <v>238</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>232.67750569576282</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="1"/>
+        <v>28.328945618637242</v>
+      </c>
+      <c r="G12">
+        <v>30</v>
+      </c>
+      <c r="H12">
+        <v>267</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="2"/>
+        <v>254.436934334705</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="3"/>
+        <v>157.83061891051409</v>
+      </c>
+      <c r="L12">
+        <v>30</v>
+      </c>
+      <c r="M12">
+        <v>243</v>
+      </c>
+      <c r="N12">
+        <f t="shared" si="4"/>
+        <v>233.47026895864144</v>
+      </c>
+      <c r="O12">
+        <f t="shared" si="5"/>
+        <v>90.81577372063289</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
+      <c r="D13" t="s">
+        <v>201</v>
+      </c>
+      <c r="E13">
+        <f>SUM(E4:E12)</f>
+        <v>173.78079924425933</v>
+      </c>
+      <c r="I13" t="s">
+        <v>201</v>
+      </c>
+      <c r="J13">
+        <f>SUM(J4:J12)</f>
+        <v>333.03166976798093</v>
+      </c>
+      <c r="N13" t="s">
+        <v>201</v>
+      </c>
+      <c r="O13">
+        <f>SUM(O4:O12)</f>
+        <v>242.6668036472276</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
+      <c r="A15" t="s">
+        <v>229</v>
+      </c>
+      <c r="B15" t="s">
+        <v>230</v>
+      </c>
+      <c r="C15" t="s">
+        <v>231</v>
+      </c>
+      <c r="G15" t="s">
+        <v>229</v>
+      </c>
+      <c r="H15" t="s">
+        <v>230</v>
+      </c>
+      <c r="I15" t="s">
+        <v>231</v>
+      </c>
+      <c r="L15" t="s">
+        <v>229</v>
+      </c>
+      <c r="M15" t="s">
+        <v>230</v>
+      </c>
+      <c r="N15" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
+      <c r="A16">
+        <v>0.44478618863316532</v>
+      </c>
+      <c r="B16">
+        <v>232.67750655992651</v>
+      </c>
+      <c r="C16">
+        <v>59.120550193695969</v>
+      </c>
+      <c r="G16">
+        <v>0.39920489226049993</v>
+      </c>
+      <c r="H16">
+        <v>254.4369347391472</v>
+      </c>
+      <c r="I16">
+        <v>67.233652463340889</v>
+      </c>
+      <c r="L16">
+        <v>0.42613004307826297</v>
+      </c>
+      <c r="M16">
+        <v>233.47143286807676</v>
+      </c>
+      <c r="N16">
+        <v>38.366041945538498</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
+      <c r="A21" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
+      <c r="B22" t="s">
+        <v>226</v>
+      </c>
+      <c r="C22" t="s">
+        <v>227</v>
+      </c>
+      <c r="D22" t="s">
+        <v>228</v>
+      </c>
+      <c r="E22" t="s">
+        <v>189</v>
+      </c>
+      <c r="G22" t="s">
+        <v>226</v>
+      </c>
+      <c r="H22" t="s">
+        <v>227</v>
+      </c>
+      <c r="I22" t="s">
+        <v>228</v>
+      </c>
+      <c r="J22" t="s">
+        <v>189</v>
+      </c>
+      <c r="L22" t="s">
+        <v>226</v>
+      </c>
+      <c r="M22" t="s">
+        <v>227</v>
+      </c>
+      <c r="N22" t="s">
+        <v>228</v>
+      </c>
+      <c r="O22" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <f>$B$35*(1-EXP(-$C$35*(B23)))</f>
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <f>(D23-C23)^2</f>
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <f>$H$35*(1-EXP(-$I$35*(G23)))</f>
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <f>(I23-H23)^2</f>
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <f>$M$35*(1-EXP(-$N$35*(L23)))</f>
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <f>(N23-M23)^2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
+      <c r="B24">
+        <v>2</v>
+      </c>
+      <c r="C24">
+        <v>93</v>
+      </c>
+      <c r="D24">
+        <f t="shared" ref="D24:D31" si="6">$B$35*(1-EXP(-$C$35*(B24)))</f>
+        <v>113.61704291367754</v>
+      </c>
+      <c r="E24">
+        <f t="shared" ref="E24:E31" si="7">(D24-C24)^2</f>
+        <v>425.06245850442116</v>
+      </c>
+      <c r="G24">
+        <v>2</v>
+      </c>
+      <c r="H24">
+        <v>108</v>
+      </c>
+      <c r="I24">
+        <f t="shared" ref="I24:I31" si="8">$H$35*(1-EXP(-$I$35*(G24)))</f>
+        <v>128.01973035654328</v>
+      </c>
+      <c r="J24">
+        <f t="shared" ref="J24:J31" si="9">(I24-H24)^2</f>
+        <v>400.78960354870043</v>
+      </c>
+      <c r="L24">
+        <v>2</v>
+      </c>
+      <c r="M24">
+        <v>61</v>
+      </c>
+      <c r="N24">
+        <f t="shared" ref="N24:N31" si="10">$M$35*(1-EXP(-$N$35*(L24)))</f>
+        <v>82.319513456541131</v>
+      </c>
+      <c r="O24">
+        <f t="shared" ref="O24:O31" si="11">(N24-M24)^2</f>
+        <v>454.52165402363835</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
+      <c r="B25">
+        <v>3</v>
+      </c>
+      <c r="C25">
+        <v>149</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="6"/>
+        <v>148.20898358337294</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="7"/>
+        <v>0.62570697137351305</v>
+      </c>
+      <c r="G25">
+        <v>3</v>
+      </c>
+      <c r="H25">
+        <v>172</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="8"/>
+        <v>166.18883421628567</v>
+      </c>
+      <c r="J25">
+        <f t="shared" si="9"/>
+        <v>33.769647765812181</v>
+      </c>
+      <c r="L25">
+        <v>3</v>
+      </c>
+      <c r="M25">
+        <v>103</v>
+      </c>
+      <c r="N25">
+        <f t="shared" si="10"/>
+        <v>112.41610162410387</v>
+      </c>
+      <c r="O25">
+        <f t="shared" si="11"/>
+        <v>88.662969795451602</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15">
+      <c r="B26">
+        <v>5</v>
+      </c>
+      <c r="C26">
+        <v>199</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="6"/>
+        <v>191.43870781708256</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="7"/>
+        <v>57.173139475448401</v>
+      </c>
+      <c r="G26">
+        <v>5</v>
+      </c>
+      <c r="H26">
+        <v>222</v>
+      </c>
+      <c r="I26">
+        <f t="shared" si="8"/>
+        <v>213.00114558036356</v>
+      </c>
+      <c r="J26">
+        <f t="shared" si="9"/>
+        <v>80.97938086581037</v>
+      </c>
+      <c r="L26">
+        <v>5</v>
+      </c>
+      <c r="M26">
+        <v>164</v>
+      </c>
+      <c r="N26">
+        <f t="shared" si="10"/>
+        <v>156.89513086420118</v>
+      </c>
+      <c r="O26">
+        <f t="shared" si="11"/>
+        <v>50.479165436826698</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15">
+      <c r="B27">
+        <v>7</v>
+      </c>
+      <c r="C27">
+        <v>230</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="6"/>
+        <v>214.13779819502764</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="7"/>
+        <v>251.60944610166834</v>
+      </c>
+      <c r="G27">
+        <v>7</v>
+      </c>
+      <c r="H27">
+        <v>246</v>
+      </c>
+      <c r="I27">
+        <f t="shared" si="8"/>
+        <v>236.93883362287116</v>
+      </c>
+      <c r="J27">
+        <f t="shared" si="9"/>
+        <v>82.104736114010223</v>
+      </c>
+      <c r="L27">
+        <v>7</v>
+      </c>
+      <c r="M27">
+        <v>201</v>
+      </c>
+      <c r="N27">
+        <f t="shared" si="10"/>
+        <v>186.4020344069441</v>
+      </c>
+      <c r="O27">
+        <f t="shared" si="11"/>
+        <v>213.10059945604399</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15">
+      <c r="B28">
+        <v>9</v>
+      </c>
+      <c r="C28">
+        <v>231</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="6"/>
+        <v>226.05665063092493</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="7"/>
+        <v>24.436702984734843</v>
+      </c>
+      <c r="G28">
+        <v>9</v>
+      </c>
+      <c r="H28">
+        <v>250</v>
+      </c>
+      <c r="I28">
+        <f t="shared" si="8"/>
+        <v>249.17947913092701</v>
+      </c>
+      <c r="J28">
+        <f t="shared" si="9"/>
+        <v>0.67325449658430014</v>
+      </c>
+      <c r="L28">
+        <v>9</v>
+      </c>
+      <c r="M28">
+        <v>213</v>
+      </c>
+      <c r="N28">
+        <f t="shared" si="10"/>
+        <v>205.97659283493803</v>
+      </c>
+      <c r="O28">
+        <f t="shared" si="11"/>
+        <v>49.328248206243792</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15">
+      <c r="B29">
+        <v>14</v>
+      </c>
+      <c r="C29">
+        <v>233</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="6"/>
+        <v>236.60165354790482</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="7"/>
+        <v>12.971908279135357</v>
+      </c>
+      <c r="G29">
+        <v>14</v>
+      </c>
+      <c r="H29">
+        <v>256</v>
+      </c>
+      <c r="I29">
+        <f t="shared" si="8"/>
+        <v>259.59381236241632</v>
+      </c>
+      <c r="J29">
+        <f t="shared" si="9"/>
+        <v>12.915487296256337</v>
+      </c>
+      <c r="L29">
+        <v>14</v>
+      </c>
+      <c r="M29">
+        <v>230</v>
+      </c>
+      <c r="N29">
+        <f t="shared" si="10"/>
+        <v>230.72612429022476</v>
+      </c>
+      <c r="O29">
+        <f t="shared" si="11"/>
+        <v>0.52725648485441179</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15">
+      <c r="B30">
+        <v>20</v>
+      </c>
+      <c r="C30">
+        <v>228</v>
+      </c>
+      <c r="D30">
+        <f t="shared" si="6"/>
+        <v>238.8532395550356</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="7"/>
+        <v>117.79280883898934</v>
+      </c>
+      <c r="G30">
+        <v>20</v>
+      </c>
+      <c r="H30">
+        <v>250</v>
+      </c>
+      <c r="I30">
+        <f t="shared" si="8"/>
+        <v>261.66872964488454</v>
+      </c>
+      <c r="J30">
+        <f t="shared" si="9"/>
+        <v>136.1592515254072</v>
+      </c>
+      <c r="L30">
+        <v>20</v>
+      </c>
+      <c r="M30">
+        <v>232</v>
+      </c>
+      <c r="N30">
+        <f t="shared" si="10"/>
+        <v>240.51692804825595</v>
+      </c>
+      <c r="O30">
+        <f t="shared" si="11"/>
+        <v>72.538063379168889</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15">
+      <c r="B31">
+        <v>30</v>
+      </c>
+      <c r="C31">
+        <v>238</v>
+      </c>
+      <c r="D31">
+        <f t="shared" si="6"/>
+        <v>239.21916568268003</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="7"/>
+        <v>1.4863649618246595</v>
+      </c>
+      <c r="G31">
+        <v>30</v>
+      </c>
+      <c r="H31">
+        <v>267</v>
+      </c>
+      <c r="I31">
+        <f t="shared" si="8"/>
+        <v>261.97779342851334</v>
+      </c>
+      <c r="J31">
+        <f t="shared" si="9"/>
+        <v>25.222558846683821</v>
+      </c>
+      <c r="L31">
+        <v>30</v>
+      </c>
+      <c r="M31">
+        <v>243</v>
+      </c>
+      <c r="N31">
+        <f t="shared" si="10"/>
+        <v>244.03524085552786</v>
+      </c>
+      <c r="O31">
+        <f t="shared" si="11"/>
+        <v>1.0717236289540557</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15">
+      <c r="D32" t="s">
+        <v>201</v>
+      </c>
+      <c r="E32">
+        <f>SUM(E23:E31)</f>
+        <v>891.15853611759565</v>
+      </c>
+      <c r="I32" t="s">
+        <v>201</v>
+      </c>
+      <c r="J32">
+        <f>SUM(J23:J31)</f>
+        <v>772.6139204592647</v>
+      </c>
+      <c r="N32" t="s">
+        <v>201</v>
+      </c>
+      <c r="O32">
+        <f>SUM(O23:O31)</f>
+        <v>930.22968041118179</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14">
+      <c r="B34" t="s">
+        <v>230</v>
+      </c>
+      <c r="C34" t="s">
+        <v>203</v>
+      </c>
+      <c r="G34" t="s">
+        <v>229</v>
+      </c>
+      <c r="H34" t="s">
+        <v>230</v>
+      </c>
+      <c r="I34" t="s">
+        <v>203</v>
+      </c>
+      <c r="L34" t="s">
+        <v>229</v>
+      </c>
+      <c r="M34" t="s">
+        <v>230</v>
+      </c>
+      <c r="N34" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14">
+      <c r="B35">
+        <v>239.23437863214102</v>
+      </c>
+      <c r="C35">
+        <v>0.3221017336909176</v>
+      </c>
+      <c r="H35">
+        <v>261.98899076710154</v>
+      </c>
+      <c r="I35">
+        <v>0.33534605459591021</v>
+      </c>
+      <c r="M35">
+        <v>244.55392107154668</v>
+      </c>
+      <c r="N35">
+        <v>0.20519678535013014</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -22146,10 +23357,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J22"/>
+  <dimension ref="A1:J31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="A25" sqref="A25:J31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
@@ -22826,6 +24037,194 @@
       <c r="J22" s="60">
         <v>0.20100000000000001</v>
       </c>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="B25" s="22" t="s">
+        <v>162</v>
+      </c>
+      <c r="C25" s="22" t="s">
+        <v>161</v>
+      </c>
+      <c r="D25" s="22" t="s">
+        <v>160</v>
+      </c>
+      <c r="E25" s="75" t="s">
+        <v>158</v>
+      </c>
+      <c r="F25" s="75" t="s">
+        <v>159</v>
+      </c>
+      <c r="G25" s="22" t="s">
+        <v>145</v>
+      </c>
+      <c r="H25" s="22" t="s">
+        <v>146</v>
+      </c>
+      <c r="I25" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="J25" s="22" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="15">
+      <c r="A26" s="22" t="s">
+        <v>219</v>
+      </c>
+      <c r="B26" s="22">
+        <v>0.1434</v>
+      </c>
+      <c r="C26" s="22">
+        <v>0.20250000000000001</v>
+      </c>
+      <c r="D26" s="22">
+        <v>0.26850000000000002</v>
+      </c>
+      <c r="E26" s="22">
+        <f>C26-B26</f>
+        <v>5.9100000000000014E-2</v>
+      </c>
+      <c r="F26" s="22">
+        <f>D26-C26</f>
+        <v>6.6000000000000003E-2</v>
+      </c>
+      <c r="G26" s="60"/>
+      <c r="H26" s="60"/>
+      <c r="I26" s="60"/>
+      <c r="J26" s="60"/>
+    </row>
+    <row r="27" spans="1:10" ht="15">
+      <c r="A27" s="22" t="s">
+        <v>220</v>
+      </c>
+      <c r="B27" s="22">
+        <v>7.1199999999999999E-2</v>
+      </c>
+      <c r="C27" s="22">
+        <v>0.128</v>
+      </c>
+      <c r="D27" s="22">
+        <v>0.1782</v>
+      </c>
+      <c r="E27" s="22">
+        <f t="shared" ref="E27:E31" si="2">C27-B27</f>
+        <v>5.6800000000000003E-2</v>
+      </c>
+      <c r="F27" s="22">
+        <f t="shared" ref="F27:F31" si="3">D27-C27</f>
+        <v>5.0199999999999995E-2</v>
+      </c>
+      <c r="G27" s="60"/>
+      <c r="H27" s="60"/>
+      <c r="I27" s="60"/>
+      <c r="J27" s="60"/>
+    </row>
+    <row r="28" spans="1:10" ht="15">
+      <c r="A28" s="22" t="s">
+        <v>221</v>
+      </c>
+      <c r="B28" s="22">
+        <v>7.1199999999999999E-2</v>
+      </c>
+      <c r="C28" s="22">
+        <v>0.16239999999999999</v>
+      </c>
+      <c r="D28" s="22">
+        <v>0.2296</v>
+      </c>
+      <c r="E28" s="22">
+        <f t="shared" si="2"/>
+        <v>9.1199999999999989E-2</v>
+      </c>
+      <c r="F28" s="22">
+        <f t="shared" si="3"/>
+        <v>6.720000000000001E-2</v>
+      </c>
+      <c r="G28" s="60"/>
+      <c r="H28" s="60"/>
+      <c r="I28" s="60"/>
+      <c r="J28" s="60"/>
+    </row>
+    <row r="29" spans="1:10" ht="15">
+      <c r="A29" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="B29" s="22">
+        <v>7.0999999999999994E-2</v>
+      </c>
+      <c r="C29" s="22">
+        <v>0.13650000000000001</v>
+      </c>
+      <c r="D29" s="22">
+        <v>0.17960000000000001</v>
+      </c>
+      <c r="E29" s="22">
+        <f t="shared" si="2"/>
+        <v>6.5500000000000017E-2</v>
+      </c>
+      <c r="F29" s="22">
+        <f t="shared" si="3"/>
+        <v>4.3099999999999999E-2</v>
+      </c>
+      <c r="G29" s="60"/>
+      <c r="H29" s="60"/>
+      <c r="I29" s="60"/>
+      <c r="J29" s="60"/>
+    </row>
+    <row r="30" spans="1:10" ht="15">
+      <c r="A30" s="22" t="s">
+        <v>223</v>
+      </c>
+      <c r="B30" s="22">
+        <v>7.0599999999999996E-2</v>
+      </c>
+      <c r="C30" s="22">
+        <v>0.1265</v>
+      </c>
+      <c r="D30" s="22">
+        <v>0.17699999999999999</v>
+      </c>
+      <c r="E30" s="22">
+        <f t="shared" si="2"/>
+        <v>5.5900000000000005E-2</v>
+      </c>
+      <c r="F30" s="22">
+        <f t="shared" si="3"/>
+        <v>5.0499999999999989E-2</v>
+      </c>
+      <c r="G30" s="60"/>
+      <c r="H30" s="60"/>
+      <c r="I30" s="60"/>
+      <c r="J30" s="60"/>
+    </row>
+    <row r="31" spans="1:10" ht="15">
+      <c r="A31" s="22" t="s">
+        <v>224</v>
+      </c>
+      <c r="B31" s="22">
+        <v>7.0900000000000005E-2</v>
+      </c>
+      <c r="C31" s="22">
+        <v>0.1472</v>
+      </c>
+      <c r="D31" s="22">
+        <v>0.22700000000000001</v>
+      </c>
+      <c r="E31" s="22">
+        <f t="shared" si="2"/>
+        <v>7.6299999999999993E-2</v>
+      </c>
+      <c r="F31" s="22">
+        <f t="shared" si="3"/>
+        <v>7.980000000000001E-2</v>
+      </c>
+      <c r="G31" s="60"/>
+      <c r="H31" s="60"/>
+      <c r="I31" s="60"/>
+      <c r="J31" s="60"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -23055,8 +24454,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J37" sqref="J37"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
